--- a/outputs/COMPAGNIE_MEDITERRANEENNE_D_ASSURANCES_ET_DE_REASS/COMAR_2024_actif_validated.xlsx
+++ b/outputs/COMPAGNIE_MEDITERRANEENNE_D_ASSURANCES_ET_DE_REASS/COMAR_2024_actif_validated.xlsx
@@ -58,9 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -512,24 +515,24 @@
         </is>
       </c>
       <c r="E2" s="1" t="n">
-        <v>30522402</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>23494299</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>7028103</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6168802</v>
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>7028103</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -554,27 +557,27 @@
           <t>AC11</t>
         </is>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="1" t="n">
         <v>1569026</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <v/>
-      </c>
-      <c r="G3" s="2" t="n">
+      <c r="F3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
         <v>1569026</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2" t="n">
         <v>1642584</v>
       </c>
-      <c r="I3" s="2" t="n">
-        <v/>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v/>
-      </c>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>NOT_OK</t>
+      <c r="I3" s="1" t="n">
+        <v>1569026</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -606,7 +609,7 @@
       <c r="G4" s="1" t="n">
         <v>5444077</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="2" t="n">
         <v>4511218</v>
       </c>
       <c r="I4" s="1" t="n">
@@ -615,7 +618,7 @@
       <c r="J4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -640,27 +643,27 @@
           <t>AC13</t>
         </is>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="1" t="n">
         <v>15000</v>
       </c>
-      <c r="F5" s="2" t="n">
-        <v/>
-      </c>
-      <c r="G5" s="2" t="n">
+      <c r="F5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
         <v>15000</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="2" t="n">
         <v>15000</v>
       </c>
-      <c r="I5" s="2" t="n">
-        <v/>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v/>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>NOT_OK</t>
+      <c r="I5" s="1" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -684,24 +687,24 @@
         </is>
       </c>
       <c r="E6" s="1" t="n">
-        <v>25469451</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>22954838</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>2514613</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3007055</v>
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>2514613</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -735,7 +738,7 @@
       <c r="G7" s="1" t="n">
         <v>2455766</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="2" t="n">
         <v>2919081</v>
       </c>
       <c r="I7" s="1" t="n">
@@ -744,7 +747,7 @@
       <c r="J7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -778,7 +781,7 @@
       <c r="G8" s="1" t="n">
         <v>58847</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="2" t="n">
         <v>87974</v>
       </c>
       <c r="I8" s="1" t="n">
@@ -787,7 +790,7 @@
       <c r="J8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -813,24 +816,24 @@
         </is>
       </c>
       <c r="E9" s="1" t="n">
-        <v>925260311</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>97499808</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>827760503</v>
-      </c>
-      <c r="H9" t="n">
-        <v>767408450</v>
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>827760503</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -864,7 +867,7 @@
       <c r="G10" s="1" t="n">
         <v>57398634</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="2" t="n">
         <v>53558944</v>
       </c>
       <c r="I10" s="1" t="n">
@@ -873,7 +876,7 @@
       <c r="J10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -907,7 +910,7 @@
       <c r="G11" s="1" t="n">
         <v>5500463</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="2" t="n">
         <v>7207850</v>
       </c>
       <c r="I11" s="1" t="n">
@@ -916,7 +919,7 @@
       <c r="J11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -950,7 +953,7 @@
       <c r="G12" s="1" t="n">
         <v>51898171</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="2" t="n">
         <v>46351094</v>
       </c>
       <c r="I12" s="1" t="n">
@@ -959,7 +962,7 @@
       <c r="J12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -993,7 +996,7 @@
       <c r="G13" s="1" t="n">
         <v>309265295</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="2" t="n">
         <v>308215255</v>
       </c>
       <c r="I13" s="1" t="n">
@@ -1002,7 +1005,7 @@
       <c r="J13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1036,7 +1039,7 @@
       <c r="G14" s="1" t="n">
         <v>64145836</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="2" t="n">
         <v>65048030</v>
       </c>
       <c r="I14" s="1" t="n">
@@ -1045,7 +1048,7 @@
       <c r="J14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1079,7 +1082,7 @@
       <c r="G15" s="1" t="n">
         <v>211353259</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="2" t="n">
         <v>207278054</v>
       </c>
       <c r="I15" s="1" t="n">
@@ -1088,7 +1091,7 @@
       <c r="J15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1113,27 +1116,27 @@
           <t>AC324</t>
         </is>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="1" t="n">
         <v>33766200</v>
       </c>
-      <c r="F16" s="2" t="n">
-        <v/>
-      </c>
-      <c r="G16" s="2" t="n">
+      <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="n">
         <v>33766200</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="2" t="n">
         <v>35889170</v>
       </c>
-      <c r="I16" s="2" t="n">
-        <v/>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v/>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>NOT_OK</t>
+      <c r="I16" s="1" t="n">
+        <v>33766200</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1168,7 @@
       <c r="G17" s="1" t="n">
         <v>445994361</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="2" t="n">
         <v>391157949</v>
       </c>
       <c r="I17" s="1" t="n">
@@ -1174,7 +1177,7 @@
       <c r="J17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1208,7 +1211,7 @@
       <c r="G18" s="1" t="n">
         <v>43555363</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="2" t="n">
         <v>39226410</v>
       </c>
       <c r="I18" s="1" t="n">
@@ -1217,7 +1220,7 @@
       <c r="J18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1251,7 +1254,7 @@
       <c r="G19" s="1" t="n">
         <v>240858952</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="2" t="n">
         <v>222528350</v>
       </c>
       <c r="I19" s="1" t="n">
@@ -1260,7 +1263,7 @@
       <c r="J19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1294,7 +1297,7 @@
       <c r="G20" s="1" t="n">
         <v>8076894</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="2" t="n">
         <v>7400037</v>
       </c>
       <c r="I20" s="1" t="n">
@@ -1303,7 +1306,7 @@
       <c r="J20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1328,25 +1331,25 @@
           <t>AC335</t>
         </is>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="4" t="n">
         <v>153500000</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="4" t="n">
         <v>153500000</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="4" t="n">
         <v>122000000</v>
       </c>
-      <c r="H21" t="n">
-        <v/>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="n">
+      <c r="H21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4" t="n">
         <v>122000000</v>
       </c>
-      <c r="K21" s="2" t="inlineStr">
+      <c r="K21" s="5" t="inlineStr">
         <is>
           <t>NOT_OK</t>
         </is>
@@ -1371,25 +1374,25 @@
           <t>AC336</t>
         </is>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="4" t="n">
         <v>3152</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" s="4" t="n">
         <v>3152</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="4" t="n">
         <v>3152</v>
       </c>
-      <c r="H22" t="n">
-        <v/>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2" t="n">
+      <c r="H22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4" t="n">
         <v>3152</v>
       </c>
-      <c r="K22" s="2" t="inlineStr">
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>NOT_OK</t>
         </is>
@@ -1414,25 +1417,25 @@
           <t>AC34</t>
         </is>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="4" t="n">
         <v>15102214</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="4" t="n">
         <v>15102214</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="4" t="n">
         <v>14476302</v>
       </c>
-      <c r="H23" t="n">
-        <v/>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="n">
+      <c r="H23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4" t="n">
         <v>14476302</v>
       </c>
-      <c r="K23" s="2" t="inlineStr">
+      <c r="K23" s="5" t="inlineStr">
         <is>
           <t>NOT_OK</t>
         </is>
@@ -1457,27 +1460,27 @@
           <t>AC5</t>
         </is>
       </c>
-      <c r="E24" s="2" t="n">
-        <v>90077227</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v/>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>90077227</v>
-      </c>
-      <c r="H24" t="n">
-        <v>85350986</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v/>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v/>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>NOT_OK</t>
+      <c r="E24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1500,25 +1503,25 @@
           <t>AC510</t>
         </is>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="4" t="n">
         <v>11487742</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="4" t="n">
         <v>11487742</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="4" t="n">
         <v>11392669</v>
       </c>
-      <c r="H25" t="n">
-        <v/>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="n">
+      <c r="H25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4" t="n">
         <v>11392669</v>
       </c>
-      <c r="K25" s="2" t="inlineStr">
+      <c r="K25" s="5" t="inlineStr">
         <is>
           <t>NOT_OK</t>
         </is>
@@ -1543,25 +1546,25 @@
           <t>AC530</t>
         </is>
       </c>
-      <c r="E26" s="2" t="n">
-        <v/>
-      </c>
-      <c r="F26" s="2" t="n">
+      <c r="E26" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="n">
         <v>810930</v>
       </c>
-      <c r="G26" s="2" t="n">
-        <v/>
-      </c>
-      <c r="H26" t="n">
-        <v/>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v/>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v/>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
+      <c r="G26" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4" t="n">
+        <v>-810930</v>
+      </c>
+      <c r="J26" s="4" t="n">
+        <v>810930</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
         <is>
           <t>NOT_OK</t>
         </is>
@@ -1586,25 +1589,25 @@
           <t>AC531</t>
         </is>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="4" t="n">
         <v>78589485</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="4" t="n">
         <v>78589485</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="4" t="n">
         <v>73147387</v>
       </c>
-      <c r="H27" t="n">
-        <v/>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="n">
+      <c r="H27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4" t="n">
         <v>73147387</v>
       </c>
-      <c r="K27" s="2" t="inlineStr">
+      <c r="K27" s="5" t="inlineStr">
         <is>
           <t>NOT_OK</t>
         </is>
@@ -1630,24 +1633,24 @@
         </is>
       </c>
       <c r="E28" s="1" t="n">
-        <v>236075998</v>
+        <v>0</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>63569170</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>172506829</v>
-      </c>
-      <c r="H28" t="n">
-        <v>141530534</v>
+        <v>0</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>172506828</v>
+        <v>0</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1681,7 +1684,7 @@
       <c r="G29" s="1" t="n">
         <v>94917391</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29" s="2" t="n">
         <v>80250399</v>
       </c>
       <c r="I29" s="1" t="n">
@@ -1690,7 +1693,7 @@
       <c r="J29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1715,25 +1718,25 @@
           <t>AC611</t>
         </is>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="4" t="n">
         <v>11653842</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="4" t="n">
         <v>11653842</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="4" t="n">
         <v>11915413</v>
       </c>
-      <c r="H30" t="n">
-        <v/>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2" t="n">
+      <c r="H30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4" t="n">
         <v>11915413</v>
       </c>
-      <c r="K30" s="2" t="inlineStr">
+      <c r="K30" s="5" t="inlineStr">
         <is>
           <t>NOT_OK</t>
         </is>
@@ -1767,7 +1770,7 @@
       <c r="G31" s="1" t="n">
         <v>56162920</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31" s="2" t="n">
         <v>48509362</v>
       </c>
       <c r="I31" s="1" t="n">
@@ -1776,7 +1779,7 @@
       <c r="J31" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1810,7 +1813,7 @@
       <c r="G32" s="1" t="n">
         <v>27100629</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32" s="2" t="n">
         <v>19825624</v>
       </c>
       <c r="I32" s="1" t="n">
@@ -1819,7 +1822,7 @@
       <c r="J32" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1853,7 +1856,7 @@
       <c r="G33" s="1" t="n">
         <v>64124653</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33" s="2" t="n">
         <v>58229967</v>
       </c>
       <c r="I33" s="1" t="n">
@@ -1862,7 +1865,7 @@
       <c r="J33" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1896,7 +1899,7 @@
       <c r="G34" s="1" t="n">
         <v>13464785</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34" s="2" t="n">
         <v>3050168</v>
       </c>
       <c r="I34" s="1" t="n">
@@ -1905,7 +1908,7 @@
       <c r="J34" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1939,7 +1942,7 @@
       <c r="G35" s="1" t="n">
         <v>10993</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35" s="2" t="n">
         <v>119735</v>
       </c>
       <c r="I35" s="1" t="n">
@@ -1948,7 +1951,7 @@
       <c r="J35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1973,25 +1976,25 @@
           <t>AC632</t>
         </is>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="4" t="n">
         <v>11223990</v>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="F36" s="4" t="n">
         <v>11223990</v>
       </c>
-      <c r="G36" s="2" t="n">
+      <c r="G36" s="4" t="n">
         <v>36160</v>
       </c>
-      <c r="H36" t="n">
-        <v/>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="n">
+      <c r="H36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="4" t="n">
         <v>36160</v>
       </c>
-      <c r="K36" s="2" t="inlineStr">
+      <c r="K36" s="5" t="inlineStr">
         <is>
           <t>NOT_OK</t>
         </is>
@@ -2025,7 +2028,7 @@
       <c r="G37" s="1" t="n">
         <v>2229803</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37" s="2" t="n">
         <v>2894272</v>
       </c>
       <c r="I37" s="1" t="n">
@@ -2034,7 +2037,7 @@
       <c r="J37" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -2059,27 +2062,27 @@
           <t>AC7</t>
         </is>
       </c>
-      <c r="E38" s="2" t="n">
-        <v>45504869</v>
-      </c>
-      <c r="F38" s="2" t="n">
-        <v/>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>45504869</v>
-      </c>
-      <c r="H38" t="n">
-        <v>40161211</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v/>
-      </c>
-      <c r="J38" s="2" t="n">
-        <v/>
-      </c>
-      <c r="K38" s="2" t="inlineStr">
-        <is>
-          <t>NOT_OK</t>
+      <c r="E38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2102,25 +2105,25 @@
           <t>AC71</t>
         </is>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="4" t="n">
         <v>10454182</v>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="F39" s="4" t="n">
         <v>10454182</v>
       </c>
-      <c r="G39" s="2" t="n">
+      <c r="G39" s="4" t="n">
         <v>7074988</v>
       </c>
-      <c r="H39" t="n">
-        <v/>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="2" t="n">
+      <c r="H39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4" t="n">
         <v>7074988</v>
       </c>
-      <c r="K39" s="2" t="inlineStr">
+      <c r="K39" s="5" t="inlineStr">
         <is>
           <t>NOT_OK</t>
         </is>
@@ -2145,25 +2148,25 @@
           <t>AC72</t>
         </is>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="E40" s="4" t="n">
         <v>12494585</v>
       </c>
-      <c r="F40" s="2" t="n">
+      <c r="F40" s="4" t="n">
         <v>12494585</v>
       </c>
-      <c r="G40" s="2" t="n">
+      <c r="G40" s="4" t="n">
         <v>12661333</v>
       </c>
-      <c r="H40" t="n">
-        <v/>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2" t="n">
+      <c r="H40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4" t="n">
         <v>12661333</v>
       </c>
-      <c r="K40" s="2" t="inlineStr">
+      <c r="K40" s="5" t="inlineStr">
         <is>
           <t>NOT_OK</t>
         </is>
@@ -2188,27 +2191,27 @@
           <t>AC73</t>
         </is>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="1" t="n">
         <v>22471672</v>
       </c>
-      <c r="F41" s="2" t="n">
-        <v/>
-      </c>
-      <c r="G41" s="2" t="n">
+      <c r="F41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="n">
         <v>22471672</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41" s="2" t="n">
         <v>20402260</v>
       </c>
-      <c r="I41" s="2" t="n">
-        <v/>
-      </c>
-      <c r="J41" s="2" t="n">
-        <v/>
-      </c>
-      <c r="K41" s="2" t="inlineStr">
-        <is>
-          <t>NOT_OK</t>
+      <c r="I41" s="1" t="n">
+        <v>22471672</v>
+      </c>
+      <c r="J41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2231,27 +2234,27 @@
           <t>AC731</t>
         </is>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="1" t="n">
         <v>13102000</v>
       </c>
-      <c r="F42" s="2" t="n">
-        <v/>
-      </c>
-      <c r="G42" s="2" t="n">
+      <c r="F42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1" t="n">
         <v>13102000</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42" s="2" t="n">
         <v>12439585</v>
       </c>
-      <c r="I42" s="2" t="n">
-        <v/>
-      </c>
-      <c r="J42" s="2" t="n">
-        <v/>
-      </c>
-      <c r="K42" s="2" t="inlineStr">
-        <is>
-          <t>NOT_OK</t>
+      <c r="I42" s="1" t="n">
+        <v>13102000</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2274,25 +2277,25 @@
           <t>AC733</t>
         </is>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="E43" s="4" t="n">
         <v>9369672</v>
       </c>
-      <c r="F43" s="2" t="n">
+      <c r="F43" s="4" t="n">
         <v>9369672</v>
       </c>
-      <c r="G43" s="2" t="n">
+      <c r="G43" s="4" t="n">
         <v>7962675</v>
       </c>
-      <c r="H43" t="n">
-        <v/>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="n">
+      <c r="H43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4" t="n">
         <v>7962675</v>
       </c>
-      <c r="K43" s="2" t="inlineStr">
+      <c r="K43" s="5" t="inlineStr">
         <is>
           <t>NOT_OK</t>
         </is>
@@ -2317,25 +2320,25 @@
           <t>AC75</t>
         </is>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="4" t="n">
         <v>84430</v>
       </c>
-      <c r="F44" s="2" t="n">
+      <c r="F44" s="4" t="n">
         <v>84430</v>
       </c>
-      <c r="G44" s="2" t="n">
+      <c r="G44" s="4" t="n">
         <v>22630</v>
       </c>
-      <c r="H44" t="n">
-        <v/>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="n">
+      <c r="H44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4" t="n">
         <v>22630</v>
       </c>
-      <c r="K44" s="2" t="inlineStr">
+      <c r="K44" s="5" t="inlineStr">
         <is>
           <t>NOT_OK</t>
         </is>
@@ -2355,6 +2358,9 @@
           <t>TOTAL  DE  L'ACTIF</t>
         </is>
       </c>
+      <c r="D45" t="n">
+        <v/>
+      </c>
       <c r="E45" s="1" t="n">
         <v>1352910258</v>
       </c>
@@ -2364,7 +2370,7 @@
       <c r="G45" s="1" t="n">
         <v>1145392144</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45" s="2" t="n">
         <v>1043627038</v>
       </c>
       <c r="I45" s="1" t="n">
@@ -2373,7 +2379,7 @@
       <c r="J45" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>

--- a/outputs/COMPAGNIE_MEDITERRANEENNE_D_ASSURANCES_ET_DE_REASS/COMAR_2024_actif_validated.xlsx
+++ b/outputs/COMPAGNIE_MEDITERRANEENNE_D_ASSURANCES_ET_DE_REASS/COMAR_2024_actif_validated.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -37,12 +37,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00C6EFCE"/>
         <bgColor rgb="00C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -58,13 +52,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +498,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AC1 Actifs incorporels</t>
+          <t>AC1 Actifs incorporels</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -549,7 +541,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AC11 Investissements de recherche et développement</t>
+          <t>AC11 Investissements de recherche et développement</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -567,7 +559,7 @@
         <v>1569026</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>1642584</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>1569026</v>
@@ -592,7 +584,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AC12 Concessions,Brevets,licences,Marques</t>
+          <t>AC12 Concessions,Brevets,licences,Marques</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -610,7 +602,7 @@
         <v>5444077</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>4511218</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>5444077</v>
@@ -635,7 +627,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AC13 Fonds commercial</t>
+          <t>AC13 Fonds commercial</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -653,7 +645,7 @@
         <v>15000</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>15000</v>
@@ -678,7 +670,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AC2 Actifs corporels d'exploitation</t>
+          <t>AC2 Actifs corporels d'exploitation</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -721,7 +713,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AC21  Installations techniques et machines</t>
+          <t>AC21  Installations techniques et machines</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -739,7 +731,7 @@
         <v>2455766</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>2919081</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>2455766</v>
@@ -764,7 +756,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AC22  Autres installations, outillage et mobilier</t>
+          <t>AC22  Autres installations, outillage et mobilier</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -782,7 +774,7 @@
         <v>58847</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>87974</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>58846</v>
@@ -807,7 +799,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AC3 Placements</t>
+          <t>AC3 Placements</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -850,7 +842,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AC31 Terrains et constructions</t>
+          <t>AC31 Terrains et constructions</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -868,7 +860,7 @@
         <v>57398634</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>53558944</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>57398634</v>
@@ -893,7 +885,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AC311 Terrains et constructions d'exploitation</t>
+          <t>AC311 Terrains et constructions d'exploitation</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -911,7 +903,7 @@
         <v>5500463</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>7207850</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>5500463</v>
@@ -936,7 +928,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AC312 Terrains et constructions hors exploitation</t>
+          <t>AC312 Terrains et constructions hors exploitation</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -954,7 +946,7 @@
         <v>51898171</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>46351094</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>51898171</v>
@@ -979,7 +971,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AC32 Placements dans les entreprises liées et participations</t>
+          <t>AC32 Placements dans les entreprises liées et participations</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -997,7 +989,7 @@
         <v>309265295</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>308215255</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>309265295</v>
@@ -1022,7 +1014,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AC321 Parts dans les entreprises liées</t>
+          <t>AC321 Parts dans les entreprises liées</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1040,7 +1032,7 @@
         <v>64145836</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>65048030</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>64145836</v>
@@ -1065,7 +1057,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AC323 Parts dans les entreprises avec un lien de participation</t>
+          <t>AC323 Parts dans les entreprises avec un lien de participation</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1083,7 +1075,7 @@
         <v>211353259</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>207278054</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>211353259</v>
@@ -1108,7 +1100,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AC324 Bons et obligations émis par les entreprises avec lien de participation</t>
+          <t>AC324 Bons et obligations émis par les entreprises avec lien de participation</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1126,7 +1118,7 @@
         <v>33766200</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>35889170</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>33766200</v>
@@ -1151,7 +1143,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AC33  Autres placements financiers</t>
+          <t>AC33  Autres placements financiers</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1169,7 +1161,7 @@
         <v>445994361</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>391157949</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>445994361</v>
@@ -1194,7 +1186,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AC331 Actions, autres titres à revenu variable et part dans des FCP</t>
+          <t>AC331 Actions, autres titres à revenu variable et part dans des FCP</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1212,7 +1204,7 @@
         <v>43555363</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>39226410</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1" t="n">
         <v>43555363</v>
@@ -1237,7 +1229,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AC332 Obligations et autres titres à revenu fixe</t>
+          <t>AC332 Obligations et autres titres à revenu fixe</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1255,7 +1247,7 @@
         <v>240858952</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>222528350</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1" t="n">
         <v>240858952</v>
@@ -1280,7 +1272,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AC334 Autres prêts</t>
+          <t>AC334 Autres prêts</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1298,7 +1290,7 @@
         <v>8076894</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>7400037</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1" t="n">
         <v>8076894</v>
@@ -1323,7 +1315,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AC335 Dépots auprés des établissements bancaire et financiers</t>
+          <t>AC335 Dépots auprés des établissements bancaire et financiers</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1331,27 +1323,27 @@
           <t>AC335</t>
         </is>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="1" t="n">
         <v>153500000</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="n">
         <v>153500000</v>
       </c>
-      <c r="G21" s="4" t="n">
-        <v>122000000</v>
-      </c>
       <c r="H21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4" t="n">
-        <v>122000000</v>
-      </c>
-      <c r="K21" s="5" t="inlineStr">
-        <is>
-          <t>NOT_OK</t>
+      <c r="I21" s="1" t="n">
+        <v>153500000</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1358,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AC336 Autres</t>
+          <t>AC336 Autres</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1374,27 +1366,27 @@
           <t>AC336</t>
         </is>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="1" t="n">
         <v>3152</v>
       </c>
-      <c r="F22" s="4" t="n">
+      <c r="F22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="n">
         <v>3152</v>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="H22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="n">
         <v>3152</v>
       </c>
-      <c r="H22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="4" t="n">
-        <v>3152</v>
-      </c>
-      <c r="K22" s="5" t="inlineStr">
-        <is>
-          <t>NOT_OK</t>
+      <c r="J22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1401,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AC34  Créances pour espèces déposées auprés des entreprises cédantes</t>
+          <t>AC34  Créances pour espèces déposées auprés des entreprises cédantes</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1417,27 +1409,27 @@
           <t>AC34</t>
         </is>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="E23" s="1" t="n">
         <v>15102214</v>
       </c>
-      <c r="F23" s="4" t="n">
+      <c r="F23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="n">
         <v>15102214</v>
       </c>
-      <c r="G23" s="4" t="n">
-        <v>14476302</v>
-      </c>
       <c r="H23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4" t="n">
-        <v>14476302</v>
-      </c>
-      <c r="K23" s="5" t="inlineStr">
-        <is>
-          <t>NOT_OK</t>
+      <c r="I23" s="1" t="n">
+        <v>15102214</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1444,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AC5 Parts des réassureurs dans les provisions techniques</t>
+          <t>AC5 Parts des réassureurs dans les provisions techniques</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1495,7 +1487,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AC510 Provisions pour primes non acquises</t>
+          <t>AC510 Provisions pour primes non acquises</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1503,27 +1495,27 @@
           <t>AC510</t>
         </is>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E25" s="1" t="n">
         <v>11487742</v>
       </c>
-      <c r="F25" s="4" t="n">
+      <c r="F25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="n">
         <v>11487742</v>
       </c>
-      <c r="G25" s="4" t="n">
-        <v>11392669</v>
-      </c>
       <c r="H25" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="4" t="n">
-        <v>11392669</v>
-      </c>
-      <c r="K25" s="5" t="inlineStr">
-        <is>
-          <t>NOT_OK</t>
+      <c r="I25" s="1" t="n">
+        <v>11487742</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1530,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AC530 Provisions pour sinistres ( vie)</t>
+          <t>AC530 Provisions pour sinistres ( vie)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1546,27 +1538,27 @@
           <t>AC530</t>
         </is>
       </c>
-      <c r="E26" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4" t="n">
-        <v>810930</v>
-      </c>
-      <c r="G26" s="4" t="n">
+      <c r="E26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="4" t="n">
-        <v>-810930</v>
-      </c>
-      <c r="J26" s="4" t="n">
-        <v>810930</v>
-      </c>
-      <c r="K26" s="5" t="inlineStr">
-        <is>
-          <t>NOT_OK</t>
+      <c r="I26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1573,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AC531 Provisions pour sinistres (non vie)</t>
+          <t>AC531 Provisions pour sinistres (non vie)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1589,27 +1581,27 @@
           <t>AC531</t>
         </is>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="E27" s="1" t="n">
         <v>78589485</v>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="F27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="n">
         <v>78589485</v>
       </c>
-      <c r="G27" s="4" t="n">
-        <v>73147387</v>
-      </c>
       <c r="H27" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="4" t="n">
-        <v>73147387</v>
-      </c>
-      <c r="K27" s="5" t="inlineStr">
-        <is>
-          <t>NOT_OK</t>
+      <c r="I27" s="1" t="n">
+        <v>78589485</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1624,7 +1616,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AC6 Créances</t>
+          <t>AC6 Créances</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1667,7 +1659,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AC61 Créances nées d'opérations d'assurance directe</t>
+          <t>AC61 Créances nées d'opérations d'assurance directe</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1685,7 +1677,7 @@
         <v>94917391</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>80250399</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1" t="n">
         <v>94917391</v>
@@ -1710,7 +1702,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AC611 Primes acquises et non émises et primes à annuler</t>
+          <t>AC611 Primes acquises et non émises et primes à annuler</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1718,27 +1710,27 @@
           <t>AC611</t>
         </is>
       </c>
-      <c r="E30" s="4" t="n">
+      <c r="E30" s="1" t="n">
         <v>11653842</v>
       </c>
-      <c r="F30" s="4" t="n">
+      <c r="F30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="n">
         <v>11653842</v>
       </c>
-      <c r="G30" s="4" t="n">
-        <v>11915413</v>
-      </c>
       <c r="H30" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4" t="n">
-        <v>11915413</v>
-      </c>
-      <c r="K30" s="5" t="inlineStr">
-        <is>
-          <t>NOT_OK</t>
+      <c r="I30" s="1" t="n">
+        <v>11653842</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -1753,7 +1745,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AC612 Autres créances nées d'opérations d'assurance directe</t>
+          <t>AC612 Autres créances nées d'opérations d'assurance directe</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1771,7 +1763,7 @@
         <v>56162920</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>48509362</v>
+        <v>0</v>
       </c>
       <c r="I31" s="1" t="n">
         <v>56162920</v>
@@ -1796,7 +1788,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AC613 Créances indemnisées subrogées à l'entreprise d'assurance</t>
+          <t>AC613 Créances indemnisées subrogées à l'entreprise d'assurance</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1814,7 +1806,7 @@
         <v>27100629</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>19825624</v>
+        <v>0</v>
       </c>
       <c r="I32" s="1" t="n">
         <v>27100629</v>
@@ -1839,7 +1831,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AC62 Créances nées d'opérations de réassurance</t>
+          <t>AC62 Créances nées d'opérations de réassurance</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1857,7 +1849,7 @@
         <v>64124653</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>58229967</v>
+        <v>0</v>
       </c>
       <c r="I33" s="1" t="n">
         <v>64124652</v>
@@ -1882,7 +1874,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AC63 Autres créances</t>
+          <t>AC63 Autres créances</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1900,7 +1892,7 @@
         <v>13464785</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>3050168</v>
+        <v>0</v>
       </c>
       <c r="I34" s="1" t="n">
         <v>13464785</v>
@@ -1925,7 +1917,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AC631 Personnel</t>
+          <t>AC631 Personnel</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1943,7 +1935,7 @@
         <v>10993</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>119735</v>
+        <v>0</v>
       </c>
       <c r="I35" s="1" t="n">
         <v>10992</v>
@@ -1968,7 +1960,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>AC632 Etat, organismes de sécurité sociale, collectivités publiques</t>
+          <t>AC632 Etat, organismes de sécurité sociale, collectivités publiques</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1976,27 +1968,27 @@
           <t>AC632</t>
         </is>
       </c>
-      <c r="E36" s="4" t="n">
+      <c r="E36" s="1" t="n">
         <v>11223990</v>
       </c>
-      <c r="F36" s="4" t="n">
+      <c r="F36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="n">
         <v>11223990</v>
       </c>
-      <c r="G36" s="4" t="n">
-        <v>36160</v>
-      </c>
       <c r="H36" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="4" t="n">
-        <v>36160</v>
-      </c>
-      <c r="K36" s="5" t="inlineStr">
-        <is>
-          <t>NOT_OK</t>
+      <c r="I36" s="1" t="n">
+        <v>11223990</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2003,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AC633 Débiteurs divers</t>
+          <t>AC633 Débiteurs divers</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2029,7 +2021,7 @@
         <v>2229803</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>2894272</v>
+        <v>0</v>
       </c>
       <c r="I37" s="1" t="n">
         <v>2229803</v>
@@ -2054,7 +2046,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AC7 Autres éléments d'actifs</t>
+          <t>AC7 Autres éléments d'actifs</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2097,7 +2089,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AC71  Avoirs en banque, CCP, chèques et caisse</t>
+          <t>AC71  Avoirs en banque, CCP, chèques et caisse</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2105,27 +2097,27 @@
           <t>AC71</t>
         </is>
       </c>
-      <c r="E39" s="4" t="n">
+      <c r="E39" s="1" t="n">
         <v>10454182</v>
       </c>
-      <c r="F39" s="4" t="n">
+      <c r="F39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="n">
         <v>10454182</v>
       </c>
-      <c r="G39" s="4" t="n">
-        <v>7074988</v>
-      </c>
       <c r="H39" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="4" t="n">
-        <v>7074988</v>
-      </c>
-      <c r="K39" s="5" t="inlineStr">
-        <is>
-          <t>NOT_OK</t>
+      <c r="I39" s="1" t="n">
+        <v>10454182</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2132,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AC72 Charges reportées</t>
+          <t>AC72 Charges reportées</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2148,27 +2140,27 @@
           <t>AC72</t>
         </is>
       </c>
-      <c r="E40" s="4" t="n">
+      <c r="E40" s="1" t="n">
         <v>12494585</v>
       </c>
-      <c r="F40" s="4" t="n">
+      <c r="F40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="n">
         <v>12494585</v>
       </c>
-      <c r="G40" s="4" t="n">
-        <v>12661333</v>
-      </c>
       <c r="H40" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I40" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="4" t="n">
-        <v>12661333</v>
-      </c>
-      <c r="K40" s="5" t="inlineStr">
-        <is>
-          <t>NOT_OK</t>
+      <c r="I40" s="1" t="n">
+        <v>12494585</v>
+      </c>
+      <c r="J40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="3" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2175,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>AC73 Comptes de régularisation Actif</t>
+          <t>AC73 Comptes de régularisation Actif</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2201,7 +2193,7 @@
         <v>22471672</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>20402260</v>
+        <v>0</v>
       </c>
       <c r="I41" s="1" t="n">
         <v>22471672</v>
@@ -2226,7 +2218,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AC731 Intérêts et loyers acquis non échus</t>
+          <t>AC731 Intérêts et loyers acquis non échus</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2244,7 +2236,7 @@
         <v>13102000</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>12439585</v>
+        <v>0</v>
       </c>
       <c r="I42" s="1" t="n">
         <v>13102000</v>
@@ -2269,7 +2261,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AC733 Autres comptes de régularisation</t>
+          <t>AC733 Autres comptes de régularisation</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2277,27 +2269,27 @@
           <t>AC733</t>
         </is>
       </c>
-      <c r="E43" s="4" t="n">
+      <c r="E43" s="1" t="n">
         <v>9369672</v>
       </c>
-      <c r="F43" s="4" t="n">
+      <c r="F43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1" t="n">
         <v>9369672</v>
       </c>
-      <c r="G43" s="4" t="n">
-        <v>7962675</v>
-      </c>
       <c r="H43" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="4" t="n">
-        <v>7962675</v>
-      </c>
-      <c r="K43" s="5" t="inlineStr">
-        <is>
-          <t>NOT_OK</t>
+      <c r="I43" s="1" t="n">
+        <v>9369672</v>
+      </c>
+      <c r="J43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2312,7 +2304,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AC75  Autres</t>
+          <t>AC75  Autres</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2320,27 +2312,27 @@
           <t>AC75</t>
         </is>
       </c>
-      <c r="E44" s="4" t="n">
+      <c r="E44" s="1" t="n">
         <v>84430</v>
       </c>
-      <c r="F44" s="4" t="n">
+      <c r="F44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1" t="n">
         <v>84430</v>
       </c>
-      <c r="G44" s="4" t="n">
-        <v>22630</v>
-      </c>
       <c r="H44" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I44" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="4" t="n">
-        <v>22630</v>
-      </c>
-      <c r="K44" s="5" t="inlineStr">
-        <is>
-          <t>NOT_OK</t>
+      <c r="I44" s="1" t="n">
+        <v>84430</v>
+      </c>
+      <c r="J44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
@@ -2353,33 +2345,255 @@
       <c r="B45" t="n">
         <v>2024</v>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>TOTAL  DE  L'ACTIF</t>
-        </is>
-      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
         <v/>
       </c>
       <c r="E45" s="1" t="n">
+        <v>30522402</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>23494299</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>7028103</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>7028103</v>
+      </c>
+      <c r="J45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v/>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>25469451</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>22954838</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>2514613</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>2514613</v>
+      </c>
+      <c r="J46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v/>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>925260311</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>97499808</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>827760503</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>827760503</v>
+      </c>
+      <c r="J47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v/>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>90077227</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>90077227</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>90077227</v>
+      </c>
+      <c r="J48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="n">
+        <v/>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>236075998</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>63569170</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <v>172506829</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>172506828</v>
+      </c>
+      <c r="J49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" s="3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="n">
+        <v/>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>45504869</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>45504869</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>45504869</v>
+      </c>
+      <c r="J50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>TOTAL  DE  L'ACTIF</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v/>
+      </c>
+      <c r="E51" s="1" t="n">
         <v>1352910258</v>
       </c>
-      <c r="F45" s="1" t="n">
+      <c r="F51" s="1" t="n">
         <v>207518114</v>
       </c>
-      <c r="G45" s="1" t="n">
+      <c r="G51" s="1" t="n">
         <v>1145392144</v>
       </c>
-      <c r="H45" s="2" t="n">
-        <v>1043627038</v>
-      </c>
-      <c r="I45" s="1" t="n">
+      <c r="H51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1" t="n">
         <v>1145392144</v>
       </c>
-      <c r="J45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="inlineStr">
+      <c r="J51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" s="3" t="inlineStr">
         <is>
           <t>OK</t>
         </is>

--- a/outputs/COMPAGNIE_MEDITERRANEENNE_D_ASSURANCES_ET_DE_REASS/COMAR_2024_actif_validated.xlsx
+++ b/outputs/COMPAGNIE_MEDITERRANEENNE_D_ASSURANCES_ET_DE_REASS/COMAR_2024_actif_validated.xlsx
@@ -2346,9 +2346,6 @@
         <v>2024</v>
       </c>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="n">
-        <v/>
-      </c>
       <c r="E45" s="1" t="n">
         <v>30522402</v>
       </c>
@@ -2383,9 +2380,6 @@
         <v>2024</v>
       </c>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="n">
-        <v/>
-      </c>
       <c r="E46" s="1" t="n">
         <v>25469451</v>
       </c>
@@ -2420,9 +2414,6 @@
         <v>2024</v>
       </c>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="n">
-        <v/>
-      </c>
       <c r="E47" s="1" t="n">
         <v>925260311</v>
       </c>
@@ -2457,9 +2448,6 @@
         <v>2024</v>
       </c>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="n">
-        <v/>
-      </c>
       <c r="E48" s="1" t="n">
         <v>90077227</v>
       </c>
@@ -2494,9 +2482,6 @@
         <v>2024</v>
       </c>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="n">
-        <v/>
-      </c>
       <c r="E49" s="1" t="n">
         <v>236075998</v>
       </c>
@@ -2531,9 +2516,6 @@
         <v>2024</v>
       </c>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="n">
-        <v/>
-      </c>
       <c r="E50" s="1" t="n">
         <v>45504869</v>
       </c>
@@ -2571,9 +2553,6 @@
         <is>
           <t>TOTAL  DE  L'ACTIF</t>
         </is>
-      </c>
-      <c r="D51" t="n">
-        <v/>
       </c>
       <c r="E51" s="1" t="n">
         <v>1352910258</v>
